--- a/documentation/CSC621 Project Gantt Chart1.xlsx
+++ b/documentation/CSC621 Project Gantt Chart1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{47137E65-9692-40DC-B090-DBC5D18A4246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3659CBF5-0FE0-4CF8-80F8-395D2CAEBA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -237,12 +237,6 @@
     <t>Create SQL View - List Roster size by Division\Team</t>
   </si>
   <si>
-    <t>Create SQL View - List Teams with less than 12 players</t>
-  </si>
-  <si>
-    <t>Create SQL View - List Players not assigned to team</t>
-  </si>
-  <si>
     <t>Player UI Development</t>
   </si>
   <si>
@@ -262,9 +256,6 @@
   </si>
   <si>
     <t>Create SQL View - Coaches without Clearances</t>
-  </si>
-  <si>
-    <t>Create SP to generate daily invoice entries</t>
   </si>
   <si>
     <t>Family UI Development</t>
@@ -292,6 +283,27 @@
   </si>
   <si>
     <t>Final Report</t>
+  </si>
+  <si>
+    <t>Report 1 - Invoices</t>
+  </si>
+  <si>
+    <t>Report 2 - Rosters</t>
+  </si>
+  <si>
+    <t>Reports 3 - Coaching Clearacnes</t>
+  </si>
+  <si>
+    <t>Report 4 - Unassigned Players</t>
+  </si>
+  <si>
+    <t>Migrate DB to Cloud</t>
+  </si>
+  <si>
+    <t>Create SQL View - Players not assigned to team</t>
+  </si>
+  <si>
+    <t>Create SP \ Trigger to generate daily invoice entries</t>
   </si>
 </sst>
 </file>
@@ -944,6 +956,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -951,18 +975,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1559,28 +1571,28 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:AJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="36" width="2.5703125" customWidth="1"/>
-    <col min="41" max="42" width="10.28515625"/>
+    <col min="1" max="1" width="2.6640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="36" width="2.5546875" customWidth="1"/>
+    <col min="41" max="42" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="59" t="s">
         <v>28</v>
       </c>
@@ -1594,7 +1606,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="58" t="s">
         <v>24</v>
       </c>
@@ -1603,84 +1615,84 @@
       </c>
       <c r="I2" s="61"/>
     </row>
-    <row r="3" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="91">
+      <c r="D3" s="90"/>
+      <c r="E3" s="85">
         <v>44371</v>
       </c>
-      <c r="F3" s="91"/>
-    </row>
-    <row r="4" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="85"/>
+    </row>
+    <row r="4" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="86">
         <f>I5</f>
         <v>44368</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="86">
         <f>P5</f>
         <v>44375</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="86">
         <f>W5</f>
         <v>44382</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="86">
         <f>AD5</f>
         <v>44389</v>
       </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-    </row>
-    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="88"/>
+    </row>
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44368</v>
@@ -1794,7 +1806,7 @@
         <v>44395</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="59" t="s">
         <v>31</v>
       </c>
@@ -1930,9 +1942,9 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="58" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C7" s="62"/>
       <c r="E7"/>
@@ -1969,7 +1981,7 @@
       <c r="AI7" s="44"/>
       <c r="AJ7" s="44"/>
     </row>
-    <row r="8" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
         <v>32</v>
       </c>
@@ -1982,7 +1994,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H36" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H40" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="44"/>
@@ -2014,9 +2026,9 @@
       <c r="AI8" s="44"/>
       <c r="AJ8" s="44"/>
     </row>
-    <row r="9" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" s="80" t="s">
         <v>39</v>
@@ -2069,7 +2081,7 @@
       <c r="AI9" s="44"/>
       <c r="AJ9" s="44"/>
     </row>
-    <row r="10" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="59" t="s">
         <v>33</v>
       </c>
@@ -2124,7 +2136,7 @@
       <c r="AI10" s="44"/>
       <c r="AJ10" s="44"/>
     </row>
-    <row r="11" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="58"/>
       <c r="B11" s="80" t="s">
         <v>40</v>
@@ -2177,7 +2189,7 @@
       <c r="AI11" s="44"/>
       <c r="AJ11" s="44"/>
     </row>
-    <row r="12" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="58"/>
       <c r="B12" s="80" t="s">
         <v>42</v>
@@ -2229,12 +2241,12 @@
       <c r="AI12" s="44"/>
       <c r="AJ12" s="44"/>
     </row>
-    <row r="13" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="59" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13" s="73"/>
       <c r="D13" s="24"/>
@@ -2274,7 +2286,7 @@
       <c r="AI13" s="44"/>
       <c r="AJ13" s="44"/>
     </row>
-    <row r="14" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="59"/>
       <c r="B14" s="81" t="s">
         <v>46</v>
@@ -2326,7 +2338,7 @@
       <c r="AI14" s="44"/>
       <c r="AJ14" s="44"/>
     </row>
-    <row r="15" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="58"/>
       <c r="B15" s="81" t="s">
         <v>47</v>
@@ -2377,7 +2389,7 @@
       <c r="AI15" s="44"/>
       <c r="AJ15" s="44"/>
     </row>
-    <row r="16" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="58"/>
       <c r="B16" s="81" t="s">
         <v>48</v>
@@ -2429,17 +2441,23 @@
       <c r="AI16" s="44"/>
       <c r="AJ16" s="44"/>
     </row>
-    <row r="17" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="58"/>
       <c r="B17" s="81" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
+      <c r="D17" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="67">
+        <v>44384</v>
+      </c>
+      <c r="F17" s="67">
+        <v>44386</v>
+      </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="44"/>
@@ -2471,7 +2489,7 @@
       <c r="AI17" s="44"/>
       <c r="AJ17" s="44"/>
     </row>
-    <row r="18" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="58"/>
       <c r="B18" s="81" t="s">
         <v>51</v>
@@ -2479,7 +2497,9 @@
       <c r="C18" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="27"/>
+      <c r="D18" s="27">
+        <v>1</v>
+      </c>
       <c r="E18" s="67">
         <f>E16</f>
         <v>44373</v>
@@ -2522,7 +2542,7 @@
       <c r="AI18" s="44"/>
       <c r="AJ18" s="44"/>
     </row>
-    <row r="19" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="58"/>
       <c r="B19" s="81" t="s">
         <v>52</v>
@@ -2530,7 +2550,9 @@
       <c r="C19" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="27"/>
+      <c r="D19" s="27">
+        <v>1</v>
+      </c>
       <c r="E19" s="67">
         <f>E18</f>
         <v>44373</v>
@@ -2573,15 +2595,17 @@
       <c r="AI19" s="44"/>
       <c r="AJ19" s="44"/>
     </row>
-    <row r="20" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="58"/>
       <c r="B20" s="81" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="27"/>
+      <c r="D20" s="27">
+        <v>1</v>
+      </c>
       <c r="E20" s="67">
         <v>44387</v>
       </c>
@@ -2619,7 +2643,7 @@
       <c r="AI20" s="44"/>
       <c r="AJ20" s="44"/>
     </row>
-    <row r="21" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="58"/>
       <c r="B21" s="81" t="s">
         <v>53</v>
@@ -2627,7 +2651,9 @@
       <c r="C21" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="27"/>
+      <c r="D21" s="27">
+        <v>1</v>
+      </c>
       <c r="E21" s="67">
         <v>44387</v>
       </c>
@@ -2665,15 +2691,17 @@
       <c r="AI21" s="44"/>
       <c r="AJ21" s="44"/>
     </row>
-    <row r="22" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="58"/>
       <c r="B22" s="81" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C22" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="27"/>
+      <c r="D22" s="27">
+        <v>1</v>
+      </c>
       <c r="E22" s="67">
         <v>44387</v>
       </c>
@@ -2711,15 +2739,17 @@
       <c r="AI22" s="44"/>
       <c r="AJ22" s="44"/>
     </row>
-    <row r="23" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="58"/>
       <c r="B23" s="81" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C23" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="27"/>
+      <c r="D23" s="27">
+        <v>1</v>
+      </c>
       <c r="E23" s="67">
         <v>44387</v>
       </c>
@@ -2757,20 +2787,22 @@
       <c r="AI23" s="44"/>
       <c r="AJ23" s="44"/>
     </row>
-    <row r="24" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="58"/>
       <c r="B24" s="81" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C24" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="27"/>
+      <c r="D24" s="27">
+        <v>1</v>
+      </c>
       <c r="E24" s="67">
-        <v>44387</v>
+        <v>44382</v>
       </c>
       <c r="F24" s="67">
-        <v>44388</v>
+        <v>44382</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
@@ -2803,7 +2835,7 @@
       <c r="AI24" s="44"/>
       <c r="AJ24" s="44"/>
     </row>
-    <row r="25" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="58" t="s">
         <v>25</v>
       </c>
@@ -2848,15 +2880,17 @@
       <c r="AI25" s="44"/>
       <c r="AJ25" s="44"/>
     </row>
-    <row r="26" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="58"/>
       <c r="B26" s="82" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C26" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="32">
+        <v>1</v>
+      </c>
       <c r="E26" s="68">
         <v>44376</v>
       </c>
@@ -2898,15 +2932,17 @@
       <c r="AI26" s="44"/>
       <c r="AJ26" s="44"/>
     </row>
-    <row r="27" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="58"/>
       <c r="B27" s="82" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="32"/>
+      <c r="D27" s="32">
+        <v>1</v>
+      </c>
       <c r="E27" s="68">
         <v>44381</v>
       </c>
@@ -2948,15 +2984,17 @@
       <c r="AI27" s="44"/>
       <c r="AJ27" s="44"/>
     </row>
-    <row r="28" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="58"/>
       <c r="B28" s="82" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="32"/>
+      <c r="D28" s="32">
+        <v>1</v>
+      </c>
       <c r="E28" s="68">
         <v>44376</v>
       </c>
@@ -2998,15 +3036,17 @@
       <c r="AI28" s="44"/>
       <c r="AJ28" s="44"/>
     </row>
-    <row r="29" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="58"/>
       <c r="B29" s="82" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="32"/>
+      <c r="D29" s="32">
+        <v>1</v>
+      </c>
       <c r="E29" s="68">
         <v>44381</v>
       </c>
@@ -3048,15 +3088,17 @@
       <c r="AI29" s="44"/>
       <c r="AJ29" s="44"/>
     </row>
-    <row r="30" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="58"/>
       <c r="B30" s="82" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="32">
+        <v>1</v>
+      </c>
       <c r="E30" s="68">
         <v>44381</v>
       </c>
@@ -3098,22 +3140,25 @@
       <c r="AI30" s="44"/>
       <c r="AJ30" s="44"/>
     </row>
-    <row r="31" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
+    <row r="31" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="58"/>
+      <c r="B31" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="32">
+        <v>1</v>
+      </c>
+      <c r="E31" s="68">
+        <v>44379</v>
+      </c>
+      <c r="F31" s="68">
+        <v>44382</v>
+      </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H31" s="17"/>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
@@ -3143,26 +3188,25 @@
       <c r="AI31" s="44"/>
       <c r="AJ31" s="44"/>
     </row>
-    <row r="32" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="58"/>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="69">
-        <v>44389</v>
-      </c>
-      <c r="F32" s="69">
-        <v>44390</v>
+      <c r="C32" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="68">
+        <v>44379</v>
+      </c>
+      <c r="F32" s="68">
+        <v>44382</v>
       </c>
       <c r="G32" s="17"/>
-      <c r="H32" s="17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
+      <c r="H32" s="17"/>
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
       <c r="K32" s="44"/>
@@ -3192,26 +3236,25 @@
       <c r="AI32" s="44"/>
       <c r="AJ32" s="44"/>
     </row>
-    <row r="33" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="58"/>
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="69">
-        <v>44391</v>
-      </c>
-      <c r="F33" s="69">
-        <v>44392</v>
+      <c r="C33" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="32">
+        <v>1</v>
+      </c>
+      <c r="E33" s="68">
+        <v>44379</v>
+      </c>
+      <c r="F33" s="68">
+        <v>44382</v>
       </c>
       <c r="G33" s="17"/>
-      <c r="H33" s="17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
+      <c r="H33" s="17"/>
       <c r="I33" s="44"/>
       <c r="J33" s="44"/>
       <c r="K33" s="44"/>
@@ -3241,26 +3284,25 @@
       <c r="AI33" s="44"/>
       <c r="AJ33" s="44"/>
     </row>
-    <row r="34" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="58"/>
-      <c r="B34" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="69">
-        <v>44394</v>
-      </c>
-      <c r="F34" s="69">
-        <v>44394</v>
+      <c r="B34" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="32">
+        <v>1</v>
+      </c>
+      <c r="E34" s="68">
+        <v>44379</v>
+      </c>
+      <c r="F34" s="68">
+        <v>44382</v>
       </c>
       <c r="G34" s="17"/>
-      <c r="H34" s="17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="H34" s="17"/>
       <c r="I34" s="44"/>
       <c r="J34" s="44"/>
       <c r="K34" s="44"/>
@@ -3290,15 +3332,17 @@
       <c r="AI34" s="44"/>
       <c r="AJ34" s="44"/>
     </row>
-    <row r="35" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="84"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
+        <v>25</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="77"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17" t="str">
         <f t="shared" si="3"/>
@@ -3333,73 +3377,269 @@
       <c r="AI35" s="44"/>
       <c r="AJ35" s="44"/>
     </row>
-    <row r="36" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="38" t="s">
+    <row r="36" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="58"/>
+      <c r="B36" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="37">
         <v>0</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43" t="str">
+      <c r="E36" s="69">
+        <v>44384</v>
+      </c>
+      <c r="F36" s="69">
+        <v>44388</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="44"/>
+    </row>
+    <row r="37" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="58"/>
+      <c r="B37" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="69">
+        <v>44388</v>
+      </c>
+      <c r="F37" s="69">
+        <v>44392</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="44"/>
+      <c r="AA37" s="44"/>
+      <c r="AB37" s="44"/>
+      <c r="AC37" s="44"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="44"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+    </row>
+    <row r="38" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="58"/>
+      <c r="B38" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="37">
+        <v>0</v>
+      </c>
+      <c r="E38" s="69">
+        <v>44394</v>
+      </c>
+      <c r="F38" s="69">
+        <v>44394</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="44"/>
+      <c r="AJ38" s="44"/>
+    </row>
+    <row r="39" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="84"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="46"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="46"/>
-      <c r="Y36" s="46"/>
-      <c r="Z36" s="46"/>
-      <c r="AA36" s="46"/>
-      <c r="AB36" s="46"/>
-      <c r="AC36" s="46"/>
-      <c r="AD36" s="46"/>
-      <c r="AE36" s="46"/>
-      <c r="AF36" s="46"/>
-      <c r="AG36" s="46"/>
-      <c r="AH36" s="46"/>
-      <c r="AI36" s="46"/>
-      <c r="AJ36" s="46"/>
-    </row>
-    <row r="37" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="6"/>
-    </row>
-    <row r="38" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="14"/>
-      <c r="F38" s="60"/>
-    </row>
-    <row r="39" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="15"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="44"/>
+      <c r="AI39" s="44"/>
+      <c r="AJ39" s="44"/>
+    </row>
+    <row r="40" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46"/>
+      <c r="AA40" s="46"/>
+      <c r="AB40" s="46"/>
+      <c r="AC40" s="46"/>
+      <c r="AD40" s="46"/>
+      <c r="AE40" s="46"/>
+      <c r="AF40" s="46"/>
+      <c r="AG40" s="46"/>
+      <c r="AH40" s="46"/>
+      <c r="AI40" s="46"/>
+      <c r="AJ40" s="46"/>
+    </row>
+    <row r="41" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="14"/>
+      <c r="F42" s="60"/>
+    </row>
+    <row r="43" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D36">
+  <conditionalFormatting sqref="D7:D40">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3413,12 +3653,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:AI36">
+  <conditionalFormatting sqref="I5:AI40">
     <cfRule type="expression" dxfId="5" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:AI36">
+  <conditionalFormatting sqref="I7:AI40">
     <cfRule type="expression" dxfId="4" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -3426,12 +3666,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ5:AJ36">
+  <conditionalFormatting sqref="AJ5:AJ40">
     <cfRule type="expression" dxfId="2" priority="35">
       <formula>AND(TODAY()&gt;=AJ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ7:AJ36">
+  <conditionalFormatting sqref="AJ7:AJ40">
     <cfRule type="expression" dxfId="1" priority="38">
       <formula>AND(task_start&lt;=AJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AJ$5)</formula>
     </cfRule>
@@ -3469,7 +3709,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D36</xm:sqref>
+          <xm:sqref>D7:D40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3483,86 +3723,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="48" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="87.109375" style="48" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="49"/>
     </row>
-    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="55" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="55"/>
     </row>
-    <row r="4" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A8" s="52" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A11" s="52" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A14" s="52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="53" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="53" t="s">
         <v>16</v>
       </c>

--- a/documentation/CSC621 Project Gantt Chart1.xlsx
+++ b/documentation/CSC621 Project Gantt Chart1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3659CBF5-0FE0-4CF8-80F8-395D2CAEBA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A11427-58DE-4A56-AE7B-4E429964AB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>Create SP \ Trigger to generate daily invoice entries</t>
+  </si>
+  <si>
+    <t>Create Trigger to validate DOB</t>
   </si>
 </sst>
 </file>
@@ -956,6 +959,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -968,13 +978,6 @@
     <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1571,11 +1574,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1622,77 +1625,77 @@
       <c r="B3" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="85">
+      <c r="D3" s="86"/>
+      <c r="E3" s="88">
         <v>44371</v>
       </c>
-      <c r="F3" s="85"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="86">
+      <c r="I4" s="89">
         <f>I5</f>
         <v>44368</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="86">
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="89">
         <f>P5</f>
         <v>44375</v>
       </c>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="86">
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="89">
         <f>W5</f>
         <v>44382</v>
       </c>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="86">
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="89">
         <f>AD5</f>
         <v>44389</v>
       </c>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="88"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44368</v>
@@ -1994,7 +1997,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="str">
-        <f t="shared" ref="H8:H40" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H41" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="44"/>
@@ -2790,7 +2793,7 @@
     <row r="24" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="58"/>
       <c r="B24" s="81" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C24" s="74" t="s">
         <v>45</v>
@@ -2799,10 +2802,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="67">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="F24" s="67">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
@@ -2836,21 +2839,24 @@
       <c r="AJ24" s="44"/>
     </row>
     <row r="25" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="31"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="27">
+        <v>1</v>
+      </c>
+      <c r="E25" s="67">
+        <v>44382</v>
+      </c>
+      <c r="F25" s="67">
+        <v>44382</v>
+      </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H25" s="17"/>
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
       <c r="K25" s="44"/>
@@ -2881,27 +2887,20 @@
       <c r="AJ25" s="44"/>
     </row>
     <row r="26" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="58"/>
-      <c r="B26" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="32">
-        <v>1</v>
-      </c>
-      <c r="E26" s="68">
-        <v>44376</v>
-      </c>
-      <c r="F26" s="68">
-        <f>E26+5</f>
-        <v>44381</v>
-      </c>
+      <c r="A26" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="75"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
       <c r="G26" s="17"/>
-      <c r="H26" s="17">
+      <c r="H26" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
@@ -2935,7 +2934,7 @@
     <row r="27" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="58"/>
       <c r="B27" s="82" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C27" s="76" t="s">
         <v>43</v>
@@ -2944,16 +2943,16 @@
         <v>1</v>
       </c>
       <c r="E27" s="68">
+        <v>44376</v>
+      </c>
+      <c r="F27" s="68">
+        <f>E27+5</f>
         <v>44381</v>
-      </c>
-      <c r="F27" s="68">
-        <f>E27+4</f>
-        <v>44385</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
@@ -2987,25 +2986,25 @@
     <row r="28" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="58"/>
       <c r="B28" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D28" s="32">
         <v>1</v>
       </c>
       <c r="E28" s="68">
-        <v>44376</v>
+        <v>44381</v>
       </c>
       <c r="F28" s="68">
-        <f>E28+5</f>
-        <v>44381</v>
+        <f>E28+4</f>
+        <v>44385</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
@@ -3039,7 +3038,7 @@
     <row r="29" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="58"/>
       <c r="B29" s="82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="76" t="s">
         <v>45</v>
@@ -3048,16 +3047,16 @@
         <v>1</v>
       </c>
       <c r="E29" s="68">
+        <v>44376</v>
+      </c>
+      <c r="F29" s="68">
+        <f>E29+5</f>
         <v>44381</v>
-      </c>
-      <c r="F29" s="68">
-        <f>E29+4</f>
-        <v>44385</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
@@ -3091,7 +3090,7 @@
     <row r="30" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="58"/>
       <c r="B30" s="82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="76" t="s">
         <v>45</v>
@@ -3143,7 +3142,7 @@
     <row r="31" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="58"/>
       <c r="B31" s="82" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C31" s="76" t="s">
         <v>45</v>
@@ -3152,13 +3151,17 @@
         <v>1</v>
       </c>
       <c r="E31" s="68">
-        <v>44379</v>
+        <v>44381</v>
       </c>
       <c r="F31" s="68">
-        <v>44382</v>
+        <f>E31+4</f>
+        <v>44385</v>
       </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="H31" s="17">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
@@ -3191,10 +3194,10 @@
     <row r="32" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="58"/>
       <c r="B32" s="82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D32" s="32">
         <v>1</v>
@@ -3239,10 +3242,10 @@
     <row r="33" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="58"/>
       <c r="B33" s="82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="32">
         <v>1</v>
@@ -3287,10 +3290,10 @@
     <row r="34" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="58"/>
       <c r="B34" s="82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D34" s="32">
         <v>1</v>
@@ -3333,21 +3336,24 @@
       <c r="AJ34" s="44"/>
     </row>
     <row r="35" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="77"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="32">
+        <v>1</v>
+      </c>
+      <c r="E35" s="68">
+        <v>44379</v>
+      </c>
+      <c r="F35" s="68">
+        <v>44382</v>
+      </c>
       <c r="G35" s="17"/>
-      <c r="H35" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H35" s="17"/>
       <c r="I35" s="44"/>
       <c r="J35" s="44"/>
       <c r="K35" s="44"/>
@@ -3378,26 +3384,20 @@
       <c r="AJ35" s="44"/>
     </row>
     <row r="36" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="58"/>
-      <c r="B36" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="37">
-        <v>0</v>
-      </c>
-      <c r="E36" s="69">
-        <v>44384</v>
-      </c>
-      <c r="F36" s="69">
-        <v>44388</v>
-      </c>
+      <c r="A36" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="77"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="17">
+      <c r="H36" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="I36" s="44"/>
       <c r="J36" s="44"/>
@@ -3431,7 +3431,7 @@
     <row r="37" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="58"/>
       <c r="B37" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="78" t="s">
         <v>44</v>
@@ -3440,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="69">
+        <v>44384</v>
+      </c>
+      <c r="F37" s="69">
         <v>44388</v>
-      </c>
-      <c r="F37" s="69">
-        <v>44392</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="17">
@@ -3482,7 +3482,7 @@
     <row r="38" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="58"/>
       <c r="B38" s="83" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C38" s="78" t="s">
         <v>44</v>
@@ -3491,15 +3491,15 @@
         <v>0</v>
       </c>
       <c r="E38" s="69">
-        <v>44394</v>
+        <v>44388</v>
       </c>
       <c r="F38" s="69">
-        <v>44394</v>
+        <v>44392</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="17">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I38" s="44"/>
       <c r="J38" s="44"/>
@@ -3531,18 +3531,26 @@
       <c r="AJ38" s="44"/>
     </row>
     <row r="39" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="37">
+        <v>0</v>
+      </c>
+      <c r="E39" s="69">
+        <v>44394</v>
+      </c>
+      <c r="F39" s="69">
+        <v>44394</v>
+      </c>
       <c r="G39" s="17"/>
-      <c r="H39" s="17" t="str">
+      <c r="H39" s="17">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I39" s="44"/>
       <c r="J39" s="44"/>
@@ -3574,72 +3582,115 @@
       <c r="AJ39" s="44"/>
     </row>
     <row r="40" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43" t="str">
+      <c r="A40" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="84"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46"/>
-      <c r="W40" s="46"/>
-      <c r="X40" s="46"/>
-      <c r="Y40" s="46"/>
-      <c r="Z40" s="46"/>
-      <c r="AA40" s="46"/>
-      <c r="AB40" s="46"/>
-      <c r="AC40" s="46"/>
-      <c r="AD40" s="46"/>
-      <c r="AE40" s="46"/>
-      <c r="AF40" s="46"/>
-      <c r="AG40" s="46"/>
-      <c r="AH40" s="46"/>
-      <c r="AI40" s="46"/>
-      <c r="AJ40" s="46"/>
-    </row>
-    <row r="41" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G41" s="6"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="44"/>
+      <c r="AA40" s="44"/>
+      <c r="AB40" s="44"/>
+      <c r="AC40" s="44"/>
+      <c r="AD40" s="44"/>
+      <c r="AE40" s="44"/>
+      <c r="AF40" s="44"/>
+      <c r="AG40" s="44"/>
+      <c r="AH40" s="44"/>
+      <c r="AI40" s="44"/>
+      <c r="AJ40" s="44"/>
+    </row>
+    <row r="41" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="46"/>
+      <c r="AA41" s="46"/>
+      <c r="AB41" s="46"/>
+      <c r="AC41" s="46"/>
+      <c r="AD41" s="46"/>
+      <c r="AE41" s="46"/>
+      <c r="AF41" s="46"/>
+      <c r="AG41" s="46"/>
+      <c r="AH41" s="46"/>
+      <c r="AI41" s="46"/>
+      <c r="AJ41" s="46"/>
     </row>
     <row r="42" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="14"/>
-      <c r="F42" s="60"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="15"/>
+      <c r="C43" s="14"/>
+      <c r="F43" s="60"/>
+    </row>
+    <row r="44" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D40">
+  <conditionalFormatting sqref="D7:D41">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3653,12 +3704,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:AI40">
+  <conditionalFormatting sqref="I5:AI41">
     <cfRule type="expression" dxfId="5" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:AI40">
+  <conditionalFormatting sqref="I7:AI41">
     <cfRule type="expression" dxfId="4" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -3666,12 +3717,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ5:AJ40">
+  <conditionalFormatting sqref="AJ5:AJ41">
     <cfRule type="expression" dxfId="2" priority="35">
       <formula>AND(TODAY()&gt;=AJ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ7:AJ40">
+  <conditionalFormatting sqref="AJ7:AJ41">
     <cfRule type="expression" dxfId="1" priority="38">
       <formula>AND(task_start&lt;=AJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AJ$5)</formula>
     </cfRule>
@@ -3691,7 +3742,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F18 F27:F28" formula="1"/>
+    <ignoredError sqref="F18 F28:F29" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3709,7 +3760,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D40</xm:sqref>
+          <xm:sqref>D7:D41</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/documentation/CSC621 Project Gantt Chart1.xlsx
+++ b/documentation/CSC621 Project Gantt Chart1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A11427-58DE-4A56-AE7B-4E429964AB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EFE09F-578D-4D8D-A743-8FBD76643257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -959,6 +959,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -968,15 +977,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1576,26 +1576,26 @@
   </sheetPr>
   <dimension ref="A1:AJ44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="49.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="9" max="36" width="2.5546875" customWidth="1"/>
-    <col min="41" max="42" width="10.33203125"/>
+    <col min="1" max="1" width="2.7109375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="36" width="2.5703125" customWidth="1"/>
+    <col min="41" max="42" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="59" t="s">
         <v>28</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
         <v>24</v>
       </c>
@@ -1618,84 +1618,84 @@
       </c>
       <c r="I2" s="61"/>
     </row>
-    <row r="3" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>62</v>
       </c>
       <c r="B3" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="88">
+      <c r="D3" s="89"/>
+      <c r="E3" s="91">
         <v>44371</v>
       </c>
-      <c r="F3" s="88"/>
-    </row>
-    <row r="4" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="91"/>
+    </row>
+    <row r="4" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="89">
+      <c r="I4" s="85">
         <f>I5</f>
         <v>44368</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="89">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="85">
         <f>P5</f>
         <v>44375</v>
       </c>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="89">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="85">
         <f>W5</f>
         <v>44382</v>
       </c>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89">
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="85">
         <f>AD5</f>
         <v>44389</v>
       </c>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="91"/>
-    </row>
-    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="87"/>
+    </row>
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44368</v>
@@ -1809,7 +1809,7 @@
         <v>44395</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>31</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
         <v>63</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="AI7" s="44"/>
       <c r="AJ7" s="44"/>
     </row>
-    <row r="8" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>32</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="AI8" s="44"/>
       <c r="AJ8" s="44"/>
     </row>
-    <row r="9" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
         <v>64</v>
       </c>
@@ -2084,7 +2084,7 @@
       <c r="AI9" s="44"/>
       <c r="AJ9" s="44"/>
     </row>
-    <row r="10" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
         <v>33</v>
       </c>
@@ -2139,7 +2139,7 @@
       <c r="AI10" s="44"/>
       <c r="AJ10" s="44"/>
     </row>
-    <row r="11" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="80" t="s">
         <v>40</v>
@@ -2192,7 +2192,7 @@
       <c r="AI11" s="44"/>
       <c r="AJ11" s="44"/>
     </row>
-    <row r="12" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="80" t="s">
         <v>42</v>
@@ -2244,7 +2244,7 @@
       <c r="AI12" s="44"/>
       <c r="AJ12" s="44"/>
     </row>
-    <row r="13" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59" t="s">
         <v>34</v>
       </c>
@@ -2289,7 +2289,7 @@
       <c r="AI13" s="44"/>
       <c r="AJ13" s="44"/>
     </row>
-    <row r="14" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59"/>
       <c r="B14" s="81" t="s">
         <v>46</v>
@@ -2341,7 +2341,7 @@
       <c r="AI14" s="44"/>
       <c r="AJ14" s="44"/>
     </row>
-    <row r="15" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="81" t="s">
         <v>47</v>
@@ -2392,7 +2392,7 @@
       <c r="AI15" s="44"/>
       <c r="AJ15" s="44"/>
     </row>
-    <row r="16" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="81" t="s">
         <v>48</v>
@@ -2444,7 +2444,7 @@
       <c r="AI16" s="44"/>
       <c r="AJ16" s="44"/>
     </row>
-    <row r="17" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="81" t="s">
         <v>59</v>
@@ -2453,7 +2453,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="27">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E17" s="67">
         <v>44384</v>
@@ -2492,7 +2492,7 @@
       <c r="AI17" s="44"/>
       <c r="AJ17" s="44"/>
     </row>
-    <row r="18" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
       <c r="B18" s="81" t="s">
         <v>51</v>
@@ -2545,7 +2545,7 @@
       <c r="AI18" s="44"/>
       <c r="AJ18" s="44"/>
     </row>
-    <row r="19" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="81" t="s">
         <v>52</v>
@@ -2598,7 +2598,7 @@
       <c r="AI19" s="44"/>
       <c r="AJ19" s="44"/>
     </row>
-    <row r="20" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
       <c r="B20" s="81" t="s">
         <v>60</v>
@@ -2646,7 +2646,7 @@
       <c r="AI20" s="44"/>
       <c r="AJ20" s="44"/>
     </row>
-    <row r="21" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
       <c r="B21" s="81" t="s">
         <v>53</v>
@@ -2694,7 +2694,7 @@
       <c r="AI21" s="44"/>
       <c r="AJ21" s="44"/>
     </row>
-    <row r="22" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
       <c r="B22" s="81" t="s">
         <v>73</v>
@@ -2742,7 +2742,7 @@
       <c r="AI22" s="44"/>
       <c r="AJ22" s="44"/>
     </row>
-    <row r="23" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="81" t="s">
         <v>74</v>
@@ -2790,7 +2790,7 @@
       <c r="AI23" s="44"/>
       <c r="AJ23" s="44"/>
     </row>
-    <row r="24" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
       <c r="B24" s="81" t="s">
         <v>75</v>
@@ -2838,7 +2838,7 @@
       <c r="AI24" s="44"/>
       <c r="AJ24" s="44"/>
     </row>
-    <row r="25" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
       <c r="B25" s="81" t="s">
         <v>72</v>
@@ -2886,7 +2886,7 @@
       <c r="AI25" s="44"/>
       <c r="AJ25" s="44"/>
     </row>
-    <row r="26" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="58" t="s">
         <v>25</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="AI26" s="44"/>
       <c r="AJ26" s="44"/>
     </row>
-    <row r="27" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="82" t="s">
         <v>61</v>
@@ -2983,7 +2983,7 @@
       <c r="AI27" s="44"/>
       <c r="AJ27" s="44"/>
     </row>
-    <row r="28" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="82" t="s">
         <v>54</v>
@@ -3035,7 +3035,7 @@
       <c r="AI28" s="44"/>
       <c r="AJ28" s="44"/>
     </row>
-    <row r="29" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" s="82" t="s">
         <v>55</v>
@@ -3087,7 +3087,7 @@
       <c r="AI29" s="44"/>
       <c r="AJ29" s="44"/>
     </row>
-    <row r="30" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
       <c r="B30" s="82" t="s">
         <v>56</v>
@@ -3139,7 +3139,7 @@
       <c r="AI30" s="44"/>
       <c r="AJ30" s="44"/>
     </row>
-    <row r="31" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
       <c r="B31" s="82" t="s">
         <v>57</v>
@@ -3191,7 +3191,7 @@
       <c r="AI31" s="44"/>
       <c r="AJ31" s="44"/>
     </row>
-    <row r="32" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="58"/>
       <c r="B32" s="82" t="s">
         <v>68</v>
@@ -3239,7 +3239,7 @@
       <c r="AI32" s="44"/>
       <c r="AJ32" s="44"/>
     </row>
-    <row r="33" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="58"/>
       <c r="B33" s="82" t="s">
         <v>69</v>
@@ -3287,7 +3287,7 @@
       <c r="AI33" s="44"/>
       <c r="AJ33" s="44"/>
     </row>
-    <row r="34" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="58"/>
       <c r="B34" s="82" t="s">
         <v>70</v>
@@ -3335,7 +3335,7 @@
       <c r="AI34" s="44"/>
       <c r="AJ34" s="44"/>
     </row>
-    <row r="35" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="58"/>
       <c r="B35" s="82" t="s">
         <v>71</v>
@@ -3383,7 +3383,7 @@
       <c r="AI35" s="44"/>
       <c r="AJ35" s="44"/>
     </row>
-    <row r="36" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="58" t="s">
         <v>25</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="AI36" s="44"/>
       <c r="AJ36" s="44"/>
     </row>
-    <row r="37" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="58"/>
       <c r="B37" s="83" t="s">
         <v>66</v>
@@ -3437,7 +3437,7 @@
         <v>44</v>
       </c>
       <c r="D37" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="69">
         <v>44384</v>
@@ -3479,7 +3479,7 @@
       <c r="AI37" s="44"/>
       <c r="AJ37" s="44"/>
     </row>
-    <row r="38" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="58"/>
       <c r="B38" s="83" t="s">
         <v>67</v>
@@ -3488,7 +3488,7 @@
         <v>44</v>
       </c>
       <c r="D38" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="69">
         <v>44388</v>
@@ -3530,7 +3530,7 @@
       <c r="AI38" s="44"/>
       <c r="AJ38" s="44"/>
     </row>
-    <row r="39" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="58"/>
       <c r="B39" s="83" t="s">
         <v>58</v>
@@ -3539,7 +3539,7 @@
         <v>44</v>
       </c>
       <c r="D39" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="69">
         <v>44394</v>
@@ -3581,7 +3581,7 @@
       <c r="AI39" s="44"/>
       <c r="AJ39" s="44"/>
     </row>
-    <row r="40" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="58" t="s">
         <v>27</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="AI40" s="44"/>
       <c r="AJ40" s="44"/>
     </row>
-    <row r="41" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="59" t="s">
         <v>26</v>
       </c>
@@ -3669,26 +3669,26 @@
       <c r="AI41" s="46"/>
       <c r="AJ41" s="46"/>
     </row>
-    <row r="42" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="14"/>
       <c r="F43" s="60"/>
     </row>
-    <row r="44" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D41">
     <cfRule type="dataBar" priority="14">
@@ -3737,7 +3737,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="45" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -3774,86 +3774,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.109375" style="48" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="87.140625" style="48" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="49"/>
     </row>
-    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="55"/>
     </row>
-    <row r="4" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="48" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="52" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="52" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="51" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" s="51" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
         <v>16</v>
       </c>
